--- a/Unity/Assets/Config/Excel/Dialog/NPC1Dialog.xlsx
+++ b/Unity/Assets/Config/Excel/Dialog/NPC1Dialog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12975"/>
+    <workbookView windowWidth="23152" windowHeight="11055"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>来自玩家</t>
   </si>
@@ -43,25 +43,28 @@
     <t>结束事件</t>
   </si>
   <si>
+    <t>图片名称</t>
+  </si>
+  <si>
+    <t>讲述者名称</t>
+  </si>
+  <si>
     <t>备注</t>
   </si>
   <si>
     <t>你好呀</t>
   </si>
   <si>
+    <t>npc</t>
+  </si>
+  <si>
     <t>我好的很！</t>
   </si>
   <si>
     <t>我这里有三个技能供你选择！</t>
   </si>
   <si>
-    <t>CheckSkill:Empty</t>
-  </si>
-  <si>
-    <t>SkillSelection:Skill1,Skill2,Skill3</t>
-  </si>
-  <si>
-    <t>你真有眼光，这个{SkillName}是绝世技能！你赚到了！</t>
+    <t>你真有眼光，这个是绝世技能！你赚到了！</t>
   </si>
   <si>
     <t>怎么还不走！</t>
@@ -1021,22 +1024,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="53.25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="43.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="40.625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="53.2477876106195" style="2" customWidth="1"/>
+    <col min="3" max="3" width="43.3716814159292" style="2" customWidth="1"/>
+    <col min="4" max="4" width="40.6283185840708" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9" style="2"/>
+    <col min="6" max="6" width="13.9469026548673" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1052,78 +1057,127 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" ht="14.25" spans="1:2">
+    <row r="2" ht="15.75" spans="1:6">
       <c r="A2" s="1" t="b">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:2">
+    <row r="3" ht="15.75" spans="1:6">
       <c r="A3" s="1" t="b">
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:4">
+    <row r="4" ht="15.75" spans="1:6">
       <c r="A4" s="1" t="b">
         <v>0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="5" ht="14.25" spans="1:2">
+    <row r="5" ht="15.75" spans="1:6">
       <c r="A5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:3">
+    <row r="6" ht="15.75" spans="1:6">
       <c r="A6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="1:2">
+    <row r="7" ht="15.75" spans="1:6">
       <c r="A7" s="1" t="b">
         <v>0</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="1:2">
+    <row r="8" ht="15.75" spans="1:6">
       <c r="A8" s="1" t="b">
         <v>0</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="1:2">
+    <row r="9" ht="15.75" spans="1:6">
       <c r="A9" s="1" t="b">
         <v>0</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/Dialog/NPC1Dialog.xlsx
+++ b/Unity/Assets/Config/Excel/Dialog/NPC1Dialog.xlsx
@@ -1027,7 +1027,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1099,7 +1099,6 @@
       <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2"/>
       <c r="E4" s="2">
         <v>1</v>
       </c>

--- a/Unity/Assets/Config/Excel/Dialog/NPC1Dialog.xlsx
+++ b/Unity/Assets/Config/Excel/Dialog/NPC1Dialog.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>来自玩家</t>
   </si>
@@ -52,31 +52,57 @@
     <t>备注</t>
   </si>
   <si>
-    <t>你好呀</t>
-  </si>
-  <si>
-    <t>npc</t>
-  </si>
-  <si>
-    <t>我好的很！</t>
-  </si>
-  <si>
-    <t>我这里有三个技能供你选择！</t>
-  </si>
-  <si>
-    <t>你真有眼光，这个是绝世技能！你赚到了！</t>
-  </si>
-  <si>
-    <t>怎么还不走！</t>
-  </si>
-  <si>
-    <t>RedScreen:1,0.5</t>
-  </si>
-  <si>
-    <t>怎么还不走！!</t>
-  </si>
-  <si>
-    <t>哼！</t>
+    <t>喂、吵架专家，醒醒，该你当班了，可别又像上次一样给我留一地烂摊子了。</t>
+  </si>
+  <si>
+    <t>同事</t>
+  </si>
+  <si>
+    <t>什么叫烂摊子，那一单我可是好好的完美让客户找回了自己的梦想。</t>
+  </si>
+  <si>
+    <t>玩家</t>
+  </si>
+  <si>
+    <t>你</t>
+  </si>
+  <si>
+    <t>啊对啊，你折腾完，第二天人家妻子就上门投诉说那客户为了他那梦想，工作也不要了，抛妻弃子跑去追求他那所谓的月光了。</t>
+  </si>
+  <si>
+    <t>那不是好事吗，我们的工作不就是为了让客户找回梦想？你可别是嫉妒我的能力。</t>
+  </si>
+  <si>
+    <t>行了行了别臭美了，新客户已经在诊疗室等着了，你直接去吧。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>收到~你就等我好消息吧。(∠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ω&lt; )⌒★</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -89,7 +115,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,9 +124,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="254"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="等线"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -245,6 +278,12 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="MS Gothic"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -567,137 +606,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -707,11 +746,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1024,160 +1069,154 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="53.2477876106195" style="2" customWidth="1"/>
     <col min="3" max="3" width="43.3716814159292" style="2" customWidth="1"/>
     <col min="4" max="4" width="40.6283185840708" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2"/>
-    <col min="6" max="6" width="13.9469026548673" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="13.9" spans="1:7">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:6">
-      <c r="A2" s="1" t="b">
+    <row r="2" ht="27.75" spans="1:7">
+      <c r="A2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" ht="27.75" spans="1:7">
+      <c r="A3" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" ht="41.65" spans="1:7">
+      <c r="A4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" ht="27.75" spans="1:7">
+      <c r="A5" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="B5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" ht="27.75" spans="1:7">
+      <c r="A6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="F6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="3"/>
     </row>
-    <row r="3" ht="15.75" spans="1:6">
-      <c r="A3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2">
+    <row r="7" ht="13.9" spans="1:7">
+      <c r="A7" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="B7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="3"/>
     </row>
-    <row r="4" ht="15.75" spans="1:6">
-      <c r="A4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" spans="1:6">
-      <c r="A5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" spans="1:6">
-      <c r="A6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" spans="1:6">
-      <c r="A7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" spans="1:6">
-      <c r="A8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" spans="1:6">
-      <c r="A9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>8</v>
-      </c>
+    <row r="8" ht="13.85" spans="3:7">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/Dialog/NPC1Dialog.xlsx
+++ b/Unity/Assets/Config/Excel/Dialog/NPC1Dialog.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>来自玩家</t>
   </si>
@@ -103,6 +103,9 @@
       </rPr>
       <t>ω&lt; )⌒★</t>
     </r>
+  </si>
+  <si>
+    <t>StartGame：1</t>
   </si>
 </sst>
 </file>
@@ -1072,7 +1075,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="6"/>
@@ -1202,7 +1205,9 @@
         <v>15</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="E7" s="3" t="s">
         <v>10</v>
       </c>
